--- a/spellsModel.xlsx
+++ b/spellsModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
   <si>
     <t>PCM</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Gustavo Adrianzén Olaya</t>
   </si>
   <si>
+    <t>Eduardo Arana Ysa</t>
+  </si>
+  <si>
     <t>Acción Popular</t>
   </si>
   <si>
@@ -478,6 +481,9 @@
     <t>6 de marzo de 2024</t>
   </si>
   <si>
+    <t>14 de mayo de 2025</t>
+  </si>
+  <si>
     <t>27 de julio de 1985</t>
   </si>
   <si>
@@ -548,6 +554,9 @@
   </si>
   <si>
     <t>13 de mayo de 2025</t>
+  </si>
+  <si>
+    <t>16 de mayo de 2025</t>
   </si>
   <si>
     <t>A. Belaunde to Garcia</t>
@@ -918,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,16 +991,16 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2">
         <v>29430</v>
@@ -1003,7 +1012,7 @@
         <v>864</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1027,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-0.2533377311302512</v>
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1035,16 +1044,16 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2">
         <v>30294</v>
@@ -1056,7 +1065,7 @@
         <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1080,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1088,16 +1097,16 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>30782</v>
@@ -1109,7 +1118,7 @@
         <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1133,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>-0.2533377311302512</v>
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1141,16 +1150,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="2">
         <v>30968</v>
@@ -1162,7 +1171,7 @@
         <v>287</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1186,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>-0.2533377311302512</v>
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1194,16 +1203,16 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F6" s="2">
         <v>31256</v>
@@ -1215,7 +1224,7 @@
         <v>698</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1239,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1247,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2">
         <v>31955</v>
@@ -1268,7 +1277,7 @@
         <v>321</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1292,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1300,16 +1309,16 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2">
         <v>32276</v>
@@ -1321,7 +1330,7 @@
         <v>367</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1345,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1353,16 +1362,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2">
         <v>32643</v>
@@ -1374,7 +1383,7 @@
         <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1398,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1406,16 +1415,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="2">
         <v>32781</v>
@@ -1427,7 +1436,7 @@
         <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1451,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1459,16 +1468,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2">
         <v>33082</v>
@@ -1480,7 +1489,7 @@
         <v>207</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1504,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.8261093516360074</v>
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1512,16 +1521,16 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2">
         <v>33284</v>
@@ -1533,7 +1542,7 @@
         <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1557,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.8261093516360074</v>
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1565,16 +1574,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>33548</v>
@@ -1586,7 +1595,7 @@
         <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1610,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.103452911587286</v>
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1618,16 +1627,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2">
         <v>33700</v>
@@ -1639,7 +1648,7 @@
         <v>509</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1663,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.103452911587286</v>
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1671,16 +1680,16 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2">
         <v>34209</v>
@@ -1692,7 +1701,7 @@
         <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1716,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1724,16 +1733,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" s="2">
         <v>34382</v>
@@ -1745,7 +1754,7 @@
         <v>526</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1769,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.4982253242490159</v>
+        <v>0.517993560508515</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1777,16 +1786,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="2">
         <v>34907</v>
@@ -1798,7 +1807,7 @@
         <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1822,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.4982253242490159</v>
+        <v>0.517993560508515</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1830,16 +1839,16 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2">
         <v>35158</v>
@@ -1851,7 +1860,7 @@
         <v>792</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1875,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1883,16 +1892,16 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="2">
         <v>35950</v>
@@ -1904,7 +1913,7 @@
         <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1928,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1936,16 +1945,16 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F20" s="2">
         <v>36028</v>
@@ -1957,7 +1966,7 @@
         <v>287</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1981,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1989,16 +1998,16 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2">
         <v>36163</v>
@@ -2010,7 +2019,7 @@
         <v>280</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2034,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.4941803856393971</v>
+        <v>0.5107049165839362</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2042,16 +2051,16 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="2">
         <v>36443</v>
@@ -2063,7 +2072,7 @@
         <v>293</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2087,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.8261093516360074</v>
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2095,16 +2104,16 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="2">
         <v>36736</v>
@@ -2116,7 +2125,7 @@
         <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2140,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2148,16 +2157,16 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="2">
         <v>36852</v>
@@ -2169,7 +2178,7 @@
         <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2193,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2201,16 +2210,16 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="2">
         <v>37100</v>
@@ -2222,7 +2231,7 @@
         <v>348</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2246,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2254,16 +2263,16 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2">
         <v>37449</v>
@@ -2275,7 +2284,7 @@
         <v>346</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2299,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2307,16 +2316,16 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F27" s="2">
         <v>37795</v>
@@ -2328,7 +2337,7 @@
         <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2352,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0.4941803856393971</v>
+        <v>0.5107049165839362</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2360,16 +2369,16 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F28" s="2">
         <v>37970</v>
@@ -2381,7 +2390,7 @@
         <v>609</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2405,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2413,16 +2422,16 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="2">
         <v>38580</v>
@@ -2434,7 +2443,7 @@
         <v>346</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2458,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2466,16 +2475,16 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F30" s="2">
         <v>38926</v>
@@ -2487,7 +2496,7 @@
         <v>805</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2511,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2519,16 +2528,16 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="2">
         <v>39735</v>
@@ -2540,7 +2549,7 @@
         <v>270</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2564,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2572,16 +2581,16 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F32" s="2">
         <v>40005</v>
@@ -2593,7 +2602,7 @@
         <v>429</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2617,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2625,16 +2634,16 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F33" s="2">
         <v>40435</v>
@@ -2646,7 +2655,7 @@
         <v>185</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2670,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2678,16 +2687,16 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="2">
         <v>40621</v>
@@ -2699,7 +2708,7 @@
         <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2723,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0.4982253242490159</v>
+        <v>0.517993560508515</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2731,16 +2740,16 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F35" s="2">
         <v>40752</v>
@@ -2752,7 +2761,7 @@
         <v>135</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2776,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2784,16 +2793,16 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="2">
         <v>40887</v>
@@ -2805,7 +2814,7 @@
         <v>226</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2829,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>-0.2533377311302512</v>
+        <v>-0.2331553476246813</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2837,16 +2846,16 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F37" s="2">
         <v>41113</v>
@@ -2858,7 +2867,7 @@
         <v>463</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2882,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>0.8261093516360074</v>
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2890,16 +2899,16 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" s="2">
         <v>41578</v>
@@ -2911,7 +2920,7 @@
         <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2935,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2943,16 +2952,16 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F39" s="2">
         <v>41694</v>
@@ -2964,7 +2973,7 @@
         <v>148</v>
       </c>
       <c r="I39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2988,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0.103452911587286</v>
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2996,16 +3005,16 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40" s="2">
         <v>41842</v>
@@ -3017,7 +3026,7 @@
         <v>254</v>
       </c>
       <c r="I40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3041,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3049,16 +3058,16 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F41" s="2">
         <v>42096</v>
@@ -3070,7 +3079,7 @@
         <v>483</v>
       </c>
       <c r="I41" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3094,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0.09924610477600122</v>
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3102,16 +3111,16 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F42" s="2">
         <v>42579</v>
@@ -3123,7 +3132,7 @@
         <v>414</v>
       </c>
       <c r="I42" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3147,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1.284431678775634</v>
+        <v>1.300456372516505</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3155,16 +3164,16 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F43" s="2">
         <v>42995</v>
@@ -3176,7 +3185,7 @@
         <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3200,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>0.09924610477600122</v>
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3208,16 +3217,16 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2">
         <v>43182</v>
@@ -3229,7 +3238,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3253,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>0.09924610477600122</v>
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3261,16 +3270,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F45" s="2">
         <v>43192</v>
@@ -3282,7 +3291,7 @@
         <v>340</v>
       </c>
       <c r="I45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3306,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3314,16 +3323,16 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F46" s="2">
         <v>43535</v>
@@ -3335,7 +3344,7 @@
         <v>203</v>
       </c>
       <c r="I46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3359,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>0.8261093516360074</v>
+        <v>0.839616500410669</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3367,16 +3376,16 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F47" s="2">
         <v>43738</v>
@@ -3388,7 +3397,7 @@
         <v>289</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3412,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>0.09924610477600122</v>
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3420,16 +3429,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F48" s="2">
         <v>44027</v>
@@ -3441,7 +3450,7 @@
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3465,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0.09924610477600122</v>
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3473,16 +3482,16 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F49" s="2">
         <v>44049</v>
@@ -3494,7 +3503,7 @@
         <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3518,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>0.103452911587286</v>
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3526,16 +3535,16 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F50" s="2">
         <v>44146</v>
@@ -3547,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3571,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3579,16 +3588,16 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F51" s="2">
         <v>44153</v>
@@ -3600,7 +3609,7 @@
         <v>252</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3624,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>0.103452911587286</v>
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3632,16 +3641,16 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F52" s="2">
         <v>44406</v>
@@ -3653,7 +3662,7 @@
         <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3677,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3685,16 +3694,16 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F53" s="2">
         <v>44475</v>
@@ -3706,7 +3715,7 @@
         <v>117</v>
       </c>
       <c r="I53" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3730,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3738,16 +3747,16 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F54" s="2">
         <v>44593</v>
@@ -3759,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3783,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>0.09924610477600122</v>
+        <v>0.1150087845647666</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3791,16 +3800,16 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F55" s="2">
         <v>44600</v>
@@ -3812,7 +3821,7 @@
         <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3836,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>0.103452911587286</v>
+        <v>0.1226196606372825</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3844,16 +3853,16 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F56" s="2">
         <v>44890</v>
@@ -3865,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3889,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3897,16 +3906,16 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F57" s="2">
         <v>44905</v>
@@ -3918,7 +3927,7 @@
         <v>11</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3942,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3950,16 +3959,16 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F58" s="2">
         <v>44916</v>
@@ -3971,7 +3980,7 @@
         <v>440</v>
       </c>
       <c r="I58" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3995,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>-0.782603495494946</v>
+        <v>-0.7717598962146817</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4003,16 +4012,16 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F59" s="2">
         <v>45357</v>
@@ -4024,7 +4033,7 @@
         <v>433</v>
       </c>
       <c r="I59" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4048,7 +4057,60 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>0.8261093516360074</v>
+        <v>0.839616500410669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45791</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45793</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>183</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2025</v>
+      </c>
+      <c r="L60" s="2">
+        <v>45866</v>
+      </c>
+      <c r="M60">
+        <v>73</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-0.7717598962146817</v>
       </c>
     </row>
   </sheetData>
